--- a/data/hotels_by_city/Houston/Houston_shard_628.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_628.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d239355-Reviews-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-HoustonI-10Federal-Road.h856129.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,625 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r434446772-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239355</t>
+  </si>
+  <si>
+    <t>434446772</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Super e, Manager at Super 8 by Wyndham Houston/I-10/Federal Road, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r432209741-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432209741</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Economical Lodging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I travel to Houston weekly for work and this Super 8 is my home-away-from-home. Friendly folks run this place and it's well manged and clean. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r422570094-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422570094</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r401275821-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401275821</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Nice property. Nice people.  Room a little damp</t>
+  </si>
+  <si>
+    <t>This property was clean and cared for.   My room smelled damp throughout my stay but improved with running the AC on high.   This may be a single room issue, as I tried a second floor room, and it was okay.   MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Super e, Manager at Super 8 by Wyndham Houston/I-10/Federal Road, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>This property was clean and cared for.   My room smelled damp throughout my stay but improved with running the AC on high.   This may be a single room issue, as I tried a second floor room, and it was okay.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r400446651-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400446651</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Perfect sized indoor pool for young kids and new swimmers. Great service from the guy at the front desk and the room was very comfortable, more spacious than I expected for my 3 kids and myself. MoreShow less</t>
+  </si>
+  <si>
+    <t>Perfect sized indoor pool for young kids and new swimmers. Great service from the guy at the front desk and the room was very comfortable, more spacious than I expected for my 3 kids and myself. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r399330178-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399330178</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r341069543-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341069543</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Different</t>
+  </si>
+  <si>
+    <t>The room was clean &amp; updated.  However there was no hair dryer, nor Kleenex.  I did receive a new hair dryer, in it's box, after I requested a hair dryer.  The receptionist gave me his box of Kleenex from his front desk.  We thought these items were standard at ALL Super 8 motels.  Also this was the MOST EXPENSIVE Super 8 we have EVER stayed in.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r333600903-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333600903</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Good location and nice staff</t>
+  </si>
+  <si>
+    <t>This hotel located nearby highway exits and I could have the access to highway very easily. I stayed here for 5 nights. I was first placed in a room pretty close to the back door entrance, where people would stay outside and smoke cigarette, I told the front desk that I am very sensitive to the smell of cigarette and they moved my room immediately. I appreciated their active responding to me needs. I had a great time there and the quality of this hotel was more than what I would have expected.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r332296946-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332296946</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Nice rms...</t>
+  </si>
+  <si>
+    <t>Great stay rms wer clean plenty space only problem was the remote didnt work due to low Batteries</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r296330746-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296330746</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Low average</t>
+  </si>
+  <si>
+    <t>Ok place.  Just ok.  Kinda sketchy area of town.  Wouldn't have felt safe strolling the neighbourhood but the motel itself was fine.  Secure room, average old furnishings and bedding.  Relatively clean.  Smelled alright.  Hotels in Houston are crazy expensive with no deals to be had it seems.  Anyway, the room was basic and fine. Breakfast lobby coffee was pretty bad but the staff was nice.  The end.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r283617152-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283617152</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r274400834-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274400834</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Passing thru</t>
+  </si>
+  <si>
+    <t>On our way through town, best price on the area and not a bad stay at all. Single room had king size bed and even a nice little breakfast.  Definitely good place especially over night.  Not out on the interstate but close.  Lots of parking too, we were pulling a trailer and had room</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r252415203-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252415203</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>New hotel, but...</t>
+  </si>
+  <si>
+    <t>Good first impression, but they built this building with economy in mind.  As a result, it was hard to sleep because of the noise (TV) from the adjoining room.  Also, I was close to the exit and people were coming and going all night.  However, the bed was really good.Come shower time, it took forever for the hot water to get to me.So, even though it was a very new building, they cut so many corners in order to cut costs while building it that it severely takes away from the experience.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r235289214-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235289214</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Bed BUGS!</t>
+  </si>
+  <si>
+    <t>I checked-in to this hotel on 10/16/14. They placed me in room 202 on the NE corner of the hotel. I went to sleep only to wake up, hop in the shower and notice red bumps all over my upper body and arms. I removed all the covers and there they were - BED BUGS and their stains! The hotel was well aware of the problem because the mattress had a bed bug encasement. The mattresses in my friends room and the room I was moved to, did not have this encasement. Shame on the staff not informing me of this issues beforehand. You need to sleep in the room a few weeks before you sell it... SHAME!!! I fault myself for not checking the room beforehand. I would've definitely left that place if I saw that bed bug encasement on the mattress.The breakfast is horrible. The bananas were old. There were no pastries. The waffle batter was watered down so much, that I had to cook it twice to get the moisture out. The TV had very few cable channels and a bunch of air channels. This is the first hotel I've ever stayed at, that had air channels...The one good thing is the internet. It's the fastest "complimentary" download speed I've ever clocked at a hotel - 13 mbps.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I checked-in to this hotel on 10/16/14. They placed me in room 202 on the NE corner of the hotel. I went to sleep only to wake up, hop in the shower and notice red bumps all over my upper body and arms. I removed all the covers and there they were - BED BUGS and their stains! The hotel was well aware of the problem because the mattress had a bed bug encasement. The mattresses in my friends room and the room I was moved to, did not have this encasement. Shame on the staff not informing me of this issues beforehand. You need to sleep in the room a few weeks before you sell it... SHAME!!! I fault myself for not checking the room beforehand. I would've definitely left that place if I saw that bed bug encasement on the mattress.The breakfast is horrible. The bananas were old. There were no pastries. The waffle batter was watered down so much, that I had to cook it twice to get the moisture out. The TV had very few cable channels and a bunch of air channels. This is the first hotel I've ever stayed at, that had air channels...The one good thing is the internet. It's the fastest "complimentary" download speed I've ever clocked at a hotel - 13 mbps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r234447885-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234447885</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Smelled clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the price it was just as expected. It was clean. It is dated somewhat. It had clean sheets and clean bathroom. The pool was clean. Breakfast was lacking. Staff was helpful and nice. Location was bit off the interstate. Roadway noise was not an issue.  Sonic was across the street. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r222601086-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222601086</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r217879667-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217879667</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r215631062-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215631062</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r210493205-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210493205</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Graciela D</t>
+  </si>
+  <si>
+    <t>Very well located and very well attended ... Clean public areas and clean rooms ... Only the internet a little fault, but was fixed.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r209555854-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209555854</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r206835653-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206835653</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r199803561-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199803561</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Poor Pool &amp; Breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very small non heated pool even though it was advertised as a heated pool with hot tub. Breakfast might as well have not been offered. </t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r196983834-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196983834</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Nice rooms, cold pool!</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. My number one complaint is the pool was way too cold for my kids to even swim. Also, we booked this hotel because of the spa tub and that was colder than the pool! When my husband asked about it, the front desk said it was never a spa just a little pool for the kids :-\ the sign on the wall clearly said spa rules!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r196058126-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196058126</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Friendly front desk staff. The price is not consistent one...</t>
+  </si>
+  <si>
+    <t>Friendly front desk staff. The price is not consistent one visit i paid $65 give or take and this last visit was $82. Tax rate 17% is crazy. Found cheaper alternative only use this super 8 as last resort.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r169785247-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169785247</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r168645253-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168645253</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Vincent Flippin</t>
+  </si>
+  <si>
+    <t>I feel comfortable to know I have place to stay when I go to Houston. No matter what time I get there my room is available.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r166300586-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166300586</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Nice rooms, Great service.</t>
+  </si>
+  <si>
+    <t>I had one of the best experiences staying that this super 8. The kids had a great time in the pool and rooms were very clean and updated. The front desk service was great and very welcoming when we walked in. I would definitely recommend this hotel to others. Overall great place!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r161621699-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161621699</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>A friendly registration desk is important.There was a...</t>
+  </si>
+  <si>
+    <t>A friendly registration desk is important.There was a smell of smokers in the near by rooms or in the hall.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r160120349-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160120349</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>smoke room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nobody ask me if I want smoke a area or no smoke area I go with my family and the area in room smell to much smoke, and the pool and spa are out of service but in general I have a good and quiet rest thanks   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r159992946-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159992946</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r157456342-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157456342</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Staff was very nice &amp; helpful.  However, walls were too...</t>
+  </si>
+  <si>
+    <t>Staff was very nice &amp; helpful.  However, walls were too thin. I was in room #118.   I could hear everything going on in room # 120.  Occupants in room #120 woke me every morning, before my alarm sounded.  My room and theirs shared an adjoining door.On Monday morning, 4/8/13, the fire alarm in my room sounded &amp; woke me.  When I started to leave the room, I noticed no one else had left their rooms or exited the motel.  It was a false alarm.  I</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r150191820-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150191820</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r146345904-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146345904</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r108317333-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>108317333</t>
+  </si>
+  <si>
+    <t>05/15/2011</t>
+  </si>
+  <si>
+    <t>Nasty owner, just making money, but cant expect what customers want..</t>
+  </si>
+  <si>
+    <t>No good Motel, Not a user friendly people, &amp; showing bad attitude,watching girls in a bad way,  room are dirty, it seems not clean, stain on sheets with hair, some rooms are used for short time,  breakfast should be inspected by Health department as it smells foul. Spa was with dirty water.there is no way to get here next time to pay $79 bucks.its built for prostitutions. if u dont take it seriously guys, you will be get bad experience.so hell dont go to this motel.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r69697344-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>69697344</t>
+  </si>
+  <si>
+    <t>07/04/2010</t>
+  </si>
+  <si>
+    <t>AWFUL!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Had prepaid for three nights, (will never do that again). The first night, the bathtub backed up , it was treated but said they weren't sure how long it would last. Well the next am it backed up again. We had places to go so we asked if we can use another room to take showers, we were told sure, you can even switch rooms if you like," take your time we are in no hurry to to get the keys back" and so that night we switched rooms and when we returned the keys, she acted like she didn't know what was going on, but I did have the keys to 2 rooms. And yes it does smell like dirty armpits!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Had prepaid for three nights, (will never do that again). The first night, the bathtub backed up , it was treated but said they weren't sure how long it would last. Well the next am it backed up again. We had places to go so we asked if we can use another room to take showers, we were told sure, you can even switch rooms if you like," take your time we are in no hurry to to get the keys back" and so that night we switched rooms and when we returned the keys, she acted like she didn't know what was going on, but I did have the keys to 2 rooms. And yes it does smell like dirty armpits!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r54140668-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54140668</t>
+  </si>
+  <si>
+    <t>01/22/2010</t>
+  </si>
+  <si>
+    <t>Worst Super 8 we have ever been to</t>
+  </si>
+  <si>
+    <t>Most of the Super 8s we've been too were good but this one was just terrible
+(a) On checkin I was in the car and my brother checked in, the reception asked if he just needed the room only for an hour or two and not the whole night (what is this place frequented by prostitutes or something)? How insulting can you be.
+(b) We told him we wanted 2 separate beds, opening the room we found one king, was he still thinking my brother was there for a 1 hour sex session????!!!!!
+(c) We moved rooms, then went to sleep, next morning at 7am the phone rings, and the same receptionist wanted someone to come down to reception immediately because he had no details of our booking, I asked if he was serious since we were tired and had driven a long way the night before and he wanted us to!!!!GRRRRRRRRRRRRRRRRRRR (I think this all came down to the night before when he presumed that we were there for a 1 hour sex session. I put this down to this hotel maybe used by local prostitutes, I'm not sure this is TOTAL speculation on my park, but my brother HAS never been asked EVER on checking in a hotel if it's just for 1-2 hours!!!!!)
+(d) Breakfast, bowls missing, can't find milk. He's dad seems to run this section, he come over and threw some bowls at us
+(e)...Most of the Super 8s we've been too were good but this one was just terrible(a) On checkin I was in the car and my brother checked in, the reception asked if he just needed the room only for an hour or two and not the whole night (what is this place frequented by prostitutes or something)? How insulting can you be.(b) We told him we wanted 2 separate beds, opening the room we found one king, was he still thinking my brother was there for a 1 hour sex session????!!!!!(c) We moved rooms, then went to sleep, next morning at 7am the phone rings, and the same receptionist wanted someone to come down to reception immediately because he had no details of our booking, I asked if he was serious since we were tired and had driven a long way the night before and he wanted us to!!!!GRRRRRRRRRRRRRRRRRRR (I think this all came down to the night before when he presumed that we were there for a 1 hour sex session. I put this down to this hotel maybe used by local prostitutes, I'm not sure this is TOTAL speculation on my park, but my brother HAS never been asked EVER on checking in a hotel if it's just for 1-2 hours!!!!!)(d) Breakfast, bowls missing, can't find milk. He's dad seems to run this section, he come over and threw some bowls at us(e) Overall the area looks a bit dodgy, I was surprised the car was ok when I went out in the morning.Went to Super 8's all over USA, after this one we stopped going to them, just in case it would be the same and went back to going to Great Westerns insteadMoreShow less</t>
+  </si>
+  <si>
+    <t>Most of the Super 8s we've been too were good but this one was just terrible
+(a) On checkin I was in the car and my brother checked in, the reception asked if he just needed the room only for an hour or two and not the whole night (what is this place frequented by prostitutes or something)? How insulting can you be.
+(b) We told him we wanted 2 separate beds, opening the room we found one king, was he still thinking my brother was there for a 1 hour sex session????!!!!!
+(c) We moved rooms, then went to sleep, next morning at 7am the phone rings, and the same receptionist wanted someone to come down to reception immediately because he had no details of our booking, I asked if he was serious since we were tired and had driven a long way the night before and he wanted us to!!!!GRRRRRRRRRRRRRRRRRRR (I think this all came down to the night before when he presumed that we were there for a 1 hour sex session. I put this down to this hotel maybe used by local prostitutes, I'm not sure this is TOTAL speculation on my park, but my brother HAS never been asked EVER on checking in a hotel if it's just for 1-2 hours!!!!!)
+(d) Breakfast, bowls missing, can't find milk. He's dad seems to run this section, he come over and threw some bowls at us
+(e)...Most of the Super 8s we've been too were good but this one was just terrible(a) On checkin I was in the car and my brother checked in, the reception asked if he just needed the room only for an hour or two and not the whole night (what is this place frequented by prostitutes or something)? How insulting can you be.(b) We told him we wanted 2 separate beds, opening the room we found one king, was he still thinking my brother was there for a 1 hour sex session????!!!!!(c) We moved rooms, then went to sleep, next morning at 7am the phone rings, and the same receptionist wanted someone to come down to reception immediately because he had no details of our booking, I asked if he was serious since we were tired and had driven a long way the night before and he wanted us to!!!!GRRRRRRRRRRRRRRRRRRR (I think this all came down to the night before when he presumed that we were there for a 1 hour sex session. I put this down to this hotel maybe used by local prostitutes, I'm not sure this is TOTAL speculation on my park, but my brother HAS never been asked EVER on checking in a hotel if it's just for 1-2 hours!!!!!)(d) Breakfast, bowls missing, can't find milk. He's dad seems to run this section, he come over and threw some bowls at us(e) Overall the area looks a bit dodgy, I was surprised the car was ok when I went out in the morning.Went to Super 8's all over USA, after this one we stopped going to them, just in case it would be the same and went back to going to Great Westerns insteadMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r16156044-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16156044</t>
+  </si>
+  <si>
+    <t>05/17/2008</t>
+  </si>
+  <si>
+    <t>Typical Super 8</t>
+  </si>
+  <si>
+    <t>Stay here on night before leaving from Houston Hobby Airport. Room was standard (2 dbl beds) , nothing really special. Toilet was one of those compressed tank types that scared the bejesus out of me when I flushed it. Sounded like an jet lavatory toilet.. Other than that, the breakfast was a bit skimpy, real slim pickings. The place is o.k. for the price paid ($62 on a Friday night), but I have stayed in better Super 8's.  Located about 15 minutes from Hobby Airport.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1160,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1192,2446 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>199</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>213</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>215</v>
+      </c>
+      <c r="J33" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" t="s">
+        <v>226</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>227</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>233</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" t="s">
+        <v>239</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" t="s">
+        <v>245</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>246</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_628.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_628.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="378">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,42 +150,90 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r540212536-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239355</t>
+  </si>
+  <si>
+    <t>540212536</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Happy Surprise with this Super 8</t>
+  </si>
+  <si>
+    <t>We had driven for hours, gotten stuck in traffic, and were too tired to go on to our destination, so we got off I-10 and saw this Super 8. It was almost 9PM. The desk clerk was so sweet! She was able to give us a room and some information about the area.We couldn't park near our room - but we got our luggage unloaded and then moved the car. The room was very nice. Quite larger than expected, with 2 queen beds and a fantastic bathroom. Very clean. We had a good night's sleep and no problems. They were definitely our beacon in the night and I will definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Houston/I-10/Federal Road, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>We had driven for hours, gotten stuck in traffic, and were too tired to go on to our destination, so we got off I-10 and saw this Super 8. It was almost 9PM. The desk clerk was so sweet! She was able to give us a room and some information about the area.We couldn't park near our room - but we got our luggage unloaded and then moved the car. The room was very nice. Quite larger than expected, with 2 queen beds and a fantastic bathroom. Very clean. We had a good night's sleep and no problems. They were definitely our beacon in the night and I will definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r481455231-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481455231</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Super e, Front Office Manager at Super 8 by Wyndham Houston/I-10/Federal Road, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r434446772-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>239355</t>
-  </si>
-  <si>
     <t>434446772</t>
   </si>
   <si>
     <t>11/03/2016</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Super e, Manager at Super 8 by Wyndham Houston/I-10/Federal Road, responded to this reviewResponded November 7, 2016</t>
   </si>
   <si>
     <t>Responded November 7, 2016</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r432209741-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -216,6 +264,42 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r413559001-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413559001</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Super e, Manager at Super 8 by Wyndham Houston/I-10/Federal Road, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r403308496-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403308496</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>My stay at the super 8 on federal was awesome the best hotel I've stayed in,spacious rooms breakfast awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at the super 8 on federal was awesome the best hotel I've stayed in,spacious rooms breakfast awesome.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r401275821-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -237,12 +321,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Super e, Manager at Super 8 by Wyndham Houston/I-10/Federal Road, responded to this reviewResponded November 8, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 8, 2016</t>
-  </si>
-  <si>
     <t>This property was clean and cared for.   My room smelled damp throughout my stay but improved with running the AC on high.   This may be a single room issue, as I tried a second floor room, and it was okay.   More</t>
   </si>
   <si>
@@ -276,6 +354,45 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r378594922-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378594922</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Reasonable price</t>
+  </si>
+  <si>
+    <t>Spent one night .  We were there memorial day.  We pulled into parking lot and only 1 car.  It kinda creeped me out.  Rooms were nice.   Smell from pool in lobby which is nasty.  Breakfast is what you expect.   Did have waffles.   Ok for the 75.00 price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Spent one night .  We were there memorial day.  We pulled into parking lot and only 1 car.  It kinda creeped me out.  Rooms were nice.   Smell from pool in lobby which is nasty.  Breakfast is what you expect.   Did have waffles.   Ok for the 75.00 price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r377614833-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377614833</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>my stay</t>
+  </si>
+  <si>
+    <t>the bed was comfortable. the room was clean and so was the bathroom. i didn't appreciate though being disturbed 1 hour before checkout time by whoever knocked on the door which i believe was the housekeeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>the bed was comfortable. the room was clean and so was the bathroom. i didn't appreciate though being disturbed 1 hour before checkout time by whoever knocked on the door which i believe was the housekeeper.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r341069543-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -330,6 +447,39 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r324255144-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324255144</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>It was only an overnight stay and close to where I was...</t>
+  </si>
+  <si>
+    <t>It was only an overnight stay and close to where I was going so it served it's purpose. Did not get conditioner or lotion like other Wyndham hotels I stayed at before. No elevator access, luckily only had to go up one floor eventhough I requested a first floor room. Breakfast on Sunday morning was only until 0900 which too early after being out all night.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r319650999-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319650999</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Breakfast buffet was a joke no milk and the entire buffet...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast buffet was a joke no milk and the entire buffet could fit on a card table. Hotel dirty, rooms dirty. No elevator. Worst stay I have ever had at a national chain. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r296330746-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -375,6 +525,45 @@
     <t>On our way through town, best price on the area and not a bad stay at all. Single room had king size bed and even a nice little breakfast.  Definitely good place especially over night.  Not out on the interstate but close.  Lots of parking too, we were pulling a trailer and had room</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r267913240-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267913240</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Decent place</t>
+  </si>
+  <si>
+    <t>Stayed there on April 18th. 2015 the hotel was fine the beds are very firm and the room over all was clean, but could use some refreshing with brighter lights.  The staff weren't very friendly and when asked for more towels they wouldn't let us have more than 3 at a time and after we had been to the indoor pool we had to take our wet towels  exchange and then shower then exchange for the next mornings showers. The indoor pool was not heated and the jacuzzi portion of the pool didn't work.  The breakfast was normal contenintal breakfast, but the hotel lady watched you like a hawk. And gave you a dirty look if you got seconds.  The area is OK and typical for that part of Houston. And there are 5 taco trucks next door to the hotel  and little ceasers  pizza is less than a mile away.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Stayed there on April 18th. 2015 the hotel was fine the beds are very firm and the room over all was clean, but could use some refreshing with brighter lights.  The staff weren't very friendly and when asked for more towels they wouldn't let us have more than 3 at a time and after we had been to the indoor pool we had to take our wet towels  exchange and then shower then exchange for the next mornings showers. The indoor pool was not heated and the jacuzzi portion of the pool didn't work.  The breakfast was normal contenintal breakfast, but the hotel lady watched you like a hawk. And gave you a dirty look if you got seconds.  The area is OK and typical for that part of Houston. And there are 5 taco trucks next door to the hotel  and little ceasers  pizza is less than a mile away.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r254901533-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254901533</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Was nice stay</t>
+  </si>
+  <si>
+    <t>Management was very nice and helpful. Breakfast is same as all the others fruit, waffles, cereal. Small pool on side, very small exercise room. Discount rooms with cdl.  Bus for downtown picks up right in front. Close to a dozen small restaraunts in walking distance. My only complaint is all none smoking rooms are towards the front of hotel. Being a light sleeper you hear I-10 traffic all night.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r252415203-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -429,6 +618,36 @@
     <t xml:space="preserve">For the price it was just as expected. It was clean. It is dated somewhat. It had clean sheets and clean bathroom. The pool was clean. Breakfast was lacking. Staff was helpful and nice. Location was bit off the interstate. Roadway noise was not an issue.  Sonic was across the street. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r228181731-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228181731</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Awful on Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Review      Sketchy location. Paper thin walls. Questionable guests staying in adjacent room. Did not feel secure, traveling alone. </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r225800009-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225800009</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r222601086-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -438,9 +657,6 @@
     <t>08/18/2014</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r217879667-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -465,6 +681,24 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r212070800-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212070800</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r211680639-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211680639</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r210493205-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -501,6 +735,27 @@
     <t>05/24/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r204655419-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204655419</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r203384536-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203384536</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r199803561-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -516,12 +771,6 @@
     <t xml:space="preserve">Very small non heated pool even though it was advertised as a heated pool with hot tub. Breakfast might as well have not been offered. </t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r196983834-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -555,6 +804,33 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r185446154-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185446154</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r184613997-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184613997</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Pit stop!</t>
+  </si>
+  <si>
+    <t>We stopped here before heading home from our cruise vacation and really liked the location. A few minutes to either shops, restaurants and Houston. Away from all the traffic and centrally located for what we were looking for. If we go, we plan on staying here again. One of the few hotels offering breakfast and an indoor pool. Clean room, secure parking lot and spacious room.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r169785247-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -600,6 +876,33 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r165601938-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165601938</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r161722694-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161722694</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Nice room. Friendly front desk.</t>
+  </si>
+  <si>
+    <t>I really liked this Super8. I am gonna recommend it to anyone headed to Houston. The front desk was friendly, helpful, and accommodating. (They let my friends who shared the room with me use the Wifi in the lobby while they waited for me to arrive.)</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r161621699-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -615,9 +918,6 @@
     <t>A friendly registration desk is important.There was a smell of smokers in the near by rooms or in the hall.</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r160120349-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -642,6 +942,27 @@
     <t>05/07/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r158962853-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158962853</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r158362067-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158362067</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r157456342-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -657,9 +978,6 @@
     <t>Staff was very nice &amp; helpful.  However, walls were too thin. I was in room #118.   I could hear everything going on in room # 120.  Occupants in room #120 woke me every morning, before my alarm sounded.  My room and theirs shared an adjoining door.On Monday morning, 4/8/13, the fire alarm in my room sounded &amp; woke me.  When I started to leave the room, I noticed no one else had left their rooms or exited the motel.  It was a false alarm.  I</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r150191820-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -682,6 +1000,46 @@
   </si>
   <si>
     <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r126342840-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126342840</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Could've been average but...</t>
+  </si>
+  <si>
+    <t>I made my reservation online and when I called to make certain everything was set for the next day, the night clerk was somewhat abrasive and told me that he didn't see my reservation (even after I gave him the confirmation # and my name) and to give him 15-20 minutes and he'd call me back.  I waited almost an hour with no return phone call, so I called back and spoke with him again, he said that I should've told him my reservation was for the next day and not that night.  Okaaaaay...Well, I thought no big deal, maybe he's just having a bad day.  
+     So, the next day we arrived and I checked in at the front lobby. The day manager was nice and gave me the key cards.  It was after 3pm when we checked in and we were ready to deposit our stuff in the room; however, it was being cleaned.  No big deal, I thought.  We'll just go do something and come back later.  
+     We got back to the hotel an hour or two later and decided to go swimming.  The hotel website states that it has an indoor pool and HOT tub, which was one of the reasons we'd picked it (because it was Spring Break and we all wanted to go swimming).  I stepped into the pool and jerked my foot back out and did the same with the "hot" tub because the...I made my reservation online and when I called to make certain everything was set for the next day, the night clerk was somewhat abrasive and told me that he didn't see my reservation (even after I gave him the confirmation # and my name) and to give him 15-20 minutes and he'd call me back.  I waited almost an hour with no return phone call, so I called back and spoke with him again, he said that I should've told him my reservation was for the next day and not that night.  Okaaaaay...Well, I thought no big deal, maybe he's just having a bad day.       So, the next day we arrived and I checked in at the front lobby. The day manager was nice and gave me the key cards.  It was after 3pm when we checked in and we were ready to deposit our stuff in the room; however, it was being cleaned.  No big deal, I thought.  We'll just go do something and come back later.       We got back to the hotel an hour or two later and decided to go swimming.  The hotel website states that it has an indoor pool and HOT tub, which was one of the reasons we'd picked it (because it was Spring Break and we all wanted to go swimming).  I stepped into the pool and jerked my foot back out and did the same with the "hot" tub because the water was FREEZING.  (I wish I'd read the reviews before I'd picked this place!)  The kids wanted to go swimming so bad that they decided to brave the cold water, however after 5 minutes, I made them get out because their eyes were fire-engine red from the EXCESSIVE AMOUNT OF CHLORINE in the pool and they were shivering.  At least they got to have a warm bath.       The next day, we left for a few hours and when we came back to rest, at around 11:30 am, all of the sheets were stripped off of the beds, etc...so we decided to leave and come back later (so we wouldn't be in the way of the room being cleaned...Right?).  We came back after 3 pm and there was no change.  The room was exactly as we'd left it and it was "being cleaned" for over 3 HOURS!  So, we left again, hoping that the room would be clean when we got back the next time.  At 5:00 pm we came back and the sheets were on the bed and we had some new towels, but the bathtub hadn't been cleaned out (How do I know, you ask?  Because the soap that my kids had used the night before was still in the same place on the tub.)     So, as to justify why this place even GOT a POOR rating, instead of TERRIBLE, I will list the positive aspects:  Gazebo outside of hotel was nice, fenced property/secure parking lot, breakfast selection was OK &amp; the room itself was average with a nice flat screen TV.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I made my reservation online and when I called to make certain everything was set for the next day, the night clerk was somewhat abrasive and told me that he didn't see my reservation (even after I gave him the confirmation # and my name) and to give him 15-20 minutes and he'd call me back.  I waited almost an hour with no return phone call, so I called back and spoke with him again, he said that I should've told him my reservation was for the next day and not that night.  Okaaaaay...Well, I thought no big deal, maybe he's just having a bad day.  
+     So, the next day we arrived and I checked in at the front lobby. The day manager was nice and gave me the key cards.  It was after 3pm when we checked in and we were ready to deposit our stuff in the room; however, it was being cleaned.  No big deal, I thought.  We'll just go do something and come back later.  
+     We got back to the hotel an hour or two later and decided to go swimming.  The hotel website states that it has an indoor pool and HOT tub, which was one of the reasons we'd picked it (because it was Spring Break and we all wanted to go swimming).  I stepped into the pool and jerked my foot back out and did the same with the "hot" tub because the...I made my reservation online and when I called to make certain everything was set for the next day, the night clerk was somewhat abrasive and told me that he didn't see my reservation (even after I gave him the confirmation # and my name) and to give him 15-20 minutes and he'd call me back.  I waited almost an hour with no return phone call, so I called back and spoke with him again, he said that I should've told him my reservation was for the next day and not that night.  Okaaaaay...Well, I thought no big deal, maybe he's just having a bad day.       So, the next day we arrived and I checked in at the front lobby. The day manager was nice and gave me the key cards.  It was after 3pm when we checked in and we were ready to deposit our stuff in the room; however, it was being cleaned.  No big deal, I thought.  We'll just go do something and come back later.       We got back to the hotel an hour or two later and decided to go swimming.  The hotel website states that it has an indoor pool and HOT tub, which was one of the reasons we'd picked it (because it was Spring Break and we all wanted to go swimming).  I stepped into the pool and jerked my foot back out and did the same with the "hot" tub because the water was FREEZING.  (I wish I'd read the reviews before I'd picked this place!)  The kids wanted to go swimming so bad that they decided to brave the cold water, however after 5 minutes, I made them get out because their eyes were fire-engine red from the EXCESSIVE AMOUNT OF CHLORINE in the pool and they were shivering.  At least they got to have a warm bath.       The next day, we left for a few hours and when we came back to rest, at around 11:30 am, all of the sheets were stripped off of the beds, etc...so we decided to leave and come back later (so we wouldn't be in the way of the room being cleaned...Right?).  We came back after 3 pm and there was no change.  The room was exactly as we'd left it and it was "being cleaned" for over 3 HOURS!  So, we left again, hoping that the room would be clean when we got back the next time.  At 5:00 pm we came back and the sheets were on the bed and we had some new towels, but the bathtub hadn't been cleaned out (How do I know, you ask?  Because the soap that my kids had used the night before was still in the same place on the tub.)     So, as to justify why this place even GOT a POOR rating, instead of TERRIBLE, I will list the positive aspects:  Gazebo outside of hotel was nice, fenced property/secure parking lot, breakfast selection was OK &amp; the room itself was average with a nice flat screen TV.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r126256652-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126256652</t>
+  </si>
+  <si>
+    <t>03/17/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Amazing Place to stay. Good Location. Clean Room. Great People. Renovated rooms, Clean Carpet. Actually Liked People. They were Warm. I will stay again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r108317333-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
@@ -749,6 +1107,47 @@
 (c) We moved rooms, then went to sleep, next morning at 7am the phone rings, and the same receptionist wanted someone to come down to reception immediately because he had no details of our booking, I asked if he was serious since we were tired and had driven a long way the night before and he wanted us to!!!!GRRRRRRRRRRRRRRRRRRR (I think this all came down to the night before when he presumed that we were there for a 1 hour sex session. I put this down to this hotel maybe used by local prostitutes, I'm not sure this is TOTAL speculation on my park, but my brother HAS never been asked EVER on checking in a hotel if it's just for 1-2 hours!!!!!)
 (d) Breakfast, bowls missing, can't find milk. He's dad seems to run this section, he come over and threw some bowls at us
 (e)...Most of the Super 8s we've been too were good but this one was just terrible(a) On checkin I was in the car and my brother checked in, the reception asked if he just needed the room only for an hour or two and not the whole night (what is this place frequented by prostitutes or something)? How insulting can you be.(b) We told him we wanted 2 separate beds, opening the room we found one king, was he still thinking my brother was there for a 1 hour sex session????!!!!!(c) We moved rooms, then went to sleep, next morning at 7am the phone rings, and the same receptionist wanted someone to come down to reception immediately because he had no details of our booking, I asked if he was serious since we were tired and had driven a long way the night before and he wanted us to!!!!GRRRRRRRRRRRRRRRRRRR (I think this all came down to the night before when he presumed that we were there for a 1 hour sex session. I put this down to this hotel maybe used by local prostitutes, I'm not sure this is TOTAL speculation on my park, but my brother HAS never been asked EVER on checking in a hotel if it's just for 1-2 hours!!!!!)(d) Breakfast, bowls missing, can't find milk. He's dad seems to run this section, he come over and threw some bowls at us(e) Overall the area looks a bit dodgy, I was surprised the car was ok when I went out in the morning.Went to Super 8's all over USA, after this one we stopped going to them, just in case it would be the same and went back to going to Great Westerns insteadMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r54065058-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54065058</t>
+  </si>
+  <si>
+    <t>01/21/2010</t>
+  </si>
+  <si>
+    <t>If you like the smell of armpits and camel caca you'll love this place!</t>
+  </si>
+  <si>
+    <t>Maybe our room was the only nasty one, but I doubt it!  The air vents in the ac were covered with dirt and moldy looking crud!  They tried to say it was because it was the "off season."
+The off season of gross?  Also, the towel rack was rusted, the toilet seat handle came off, actually it fell off. and the door stop that protects the wall from getting the door slammed into it was being held on by a nail!  Yes a nail!  It was hanging from the wall.  The whole hotel including the lobby smelled like Indian spices, b.o., or something.  I don't know what it was, but it wasn't what I like to smell when I check into a hotel.  Do yourself a favor, DONT'T STAY HERE!   They make you prepay for two nights if you book over the internet and they won't refund your money.  What a ripoff.  I filed a complaint with Super 8 Corporate, but they didn't seem to care.  I also tried to contact the Health Department, but they were pretty laid back too.  It wasn't their department's job,  yeah yeah, pass the buck!  I wouln't stay here again if you paid me good money to!  This hotel doesn't even deserve 1 star.  The place is just plain nasty!  The pool looked like it had fish tank water in it.  I didn't get in.  I was afraid that I would get sick and...Maybe our room was the only nasty one, but I doubt it!  The air vents in the ac were covered with dirt and moldy looking crud!  They tried to say it was because it was the "off season."The off season of gross?  Also, the towel rack was rusted, the toilet seat handle came off, actually it fell off. and the door stop that protects the wall from getting the door slammed into it was being held on by a nail!  Yes a nail!  It was hanging from the wall.  The whole hotel including the lobby smelled like Indian spices, b.o., or something.  I don't know what it was, but it wasn't what I like to smell when I check into a hotel.  Do yourself a favor, DONT'T STAY HERE!   They make you prepay for two nights if you book over the internet and they won't refund your money.  What a ripoff.  I filed a complaint with Super 8 Corporate, but they didn't seem to care.  I also tried to contact the Health Department, but they were pretty laid back too.  It wasn't their department's job,  yeah yeah, pass the buck!  I wouln't stay here again if you paid me good money to!  This hotel doesn't even deserve 1 star.  The place is just plain nasty!  The pool looked like it had fish tank water in it.  I didn't get in.  I was afraid that I would get sick and I definately wouldn't put children in it.  If you like nasty conditions then this is the place for you.  If you don't believe me, go ahead and check it out for yourself.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>Maybe our room was the only nasty one, but I doubt it!  The air vents in the ac were covered with dirt and moldy looking crud!  They tried to say it was because it was the "off season."
+The off season of gross?  Also, the towel rack was rusted, the toilet seat handle came off, actually it fell off. and the door stop that protects the wall from getting the door slammed into it was being held on by a nail!  Yes a nail!  It was hanging from the wall.  The whole hotel including the lobby smelled like Indian spices, b.o., or something.  I don't know what it was, but it wasn't what I like to smell when I check into a hotel.  Do yourself a favor, DONT'T STAY HERE!   They make you prepay for two nights if you book over the internet and they won't refund your money.  What a ripoff.  I filed a complaint with Super 8 Corporate, but they didn't seem to care.  I also tried to contact the Health Department, but they were pretty laid back too.  It wasn't their department's job,  yeah yeah, pass the buck!  I wouln't stay here again if you paid me good money to!  This hotel doesn't even deserve 1 star.  The place is just plain nasty!  The pool looked like it had fish tank water in it.  I didn't get in.  I was afraid that I would get sick and...Maybe our room was the only nasty one, but I doubt it!  The air vents in the ac were covered with dirt and moldy looking crud!  They tried to say it was because it was the "off season."The off season of gross?  Also, the towel rack was rusted, the toilet seat handle came off, actually it fell off. and the door stop that protects the wall from getting the door slammed into it was being held on by a nail!  Yes a nail!  It was hanging from the wall.  The whole hotel including the lobby smelled like Indian spices, b.o., or something.  I don't know what it was, but it wasn't what I like to smell when I check into a hotel.  Do yourself a favor, DONT'T STAY HERE!   They make you prepay for two nights if you book over the internet and they won't refund your money.  What a ripoff.  I filed a complaint with Super 8 Corporate, but they didn't seem to care.  I also tried to contact the Health Department, but they were pretty laid back too.  It wasn't their department's job,  yeah yeah, pass the buck!  I wouln't stay here again if you paid me good money to!  This hotel doesn't even deserve 1 star.  The place is just plain nasty!  The pool looked like it had fish tank water in it.  I didn't get in.  I was afraid that I would get sick and I definately wouldn't put children in it.  If you like nasty conditions then this is the place for you.  If you don't believe me, go ahead and check it out for yourself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r52247242-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>52247242</t>
+  </si>
+  <si>
+    <t>12/31/2009</t>
+  </si>
+  <si>
+    <t>would not recomend.</t>
+  </si>
+  <si>
+    <t>1. pool area cold and dark2. spa was cold and no way of getting warm.3. staff was very unfriendly, and would not help with anything.4. when we  were looking for a hotel we were looking for one with truck parking, so when we called they said yes we have truck parking....NO they do not.5. hotel had a bad smell..6. rooms are small.7. Have stayed at much much better super 8.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239355-r16156044-Super_8_by_Wyndham_Houston_I_10_Federal_Road-Houston_Texas.html</t>
@@ -1294,46 +1693,44 @@
       <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s"/>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1349,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1358,14 +1755,12 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
       </c>
+      <c r="K3" t="s"/>
       <c r="L3" t="s">
         <v>60</v>
       </c>
@@ -1373,10 +1768,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1385,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -1397,10 +1792,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1416,53 +1815,61 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1477,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1486,53 +1893,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1548,7 +1951,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1557,31 +1960,27 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
       <c r="P6" t="n">
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
         <v>3</v>
@@ -1596,15 +1995,9 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1635,44 +2028,44 @@
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1688,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1697,34 +2090,34 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1736,10 +2129,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1755,7 +2152,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1764,32 +2161,38 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>4</v>
@@ -1797,10 +2200,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1816,7 +2223,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1825,49 +2232,53 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>99</v>
       </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>103</v>
-      </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +2294,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1892,39 +2303,51 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +2363,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1949,44 +2372,44 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
         <v>111</v>
       </c>
-      <c r="J12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>113</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2001,7 +2424,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2010,35 +2433,53 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>117</v>
       </c>
-      <c r="L13" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="O13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" t="s">
+        <v>87</v>
+      </c>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2054,7 +2495,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2063,37 +2504,41 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2101,7 +2546,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2117,7 +2562,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2126,35 +2571,35 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2162,7 +2607,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -2178,7 +2623,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2187,39 +2632,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -2235,7 +2690,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2244,33 +2699,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -2281,7 +2740,9 @@
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2296,7 +2757,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2305,39 +2766,41 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2345,7 +2808,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -2361,7 +2824,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2370,44 +2833,40 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2422,7 +2881,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2431,28 +2890,24 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" t="s">
-        <v>153</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
         <v>5</v>
@@ -2465,16 +2920,14 @@
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
-      <c r="Y20" t="s">
-        <v>153</v>
-      </c>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2489,7 +2942,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2498,44 +2951,36 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>148</v>
-      </c>
-      <c r="O21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2550,7 +2995,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2559,44 +3004,40 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2611,7 +3052,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2620,41 +3061,35 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O23" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2662,7 +3097,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
@@ -2678,7 +3113,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2687,34 +3122,34 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>3</v>
@@ -2725,7 +3160,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
@@ -2741,7 +3176,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2750,41 +3185,35 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2792,7 +3221,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
@@ -2808,7 +3237,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2817,44 +3246,40 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="Y26" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2869,7 +3294,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2878,41 +3303,41 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2920,7 +3345,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
@@ -2936,7 +3361,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2945,25 +3370,21 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" t="s">
-        <v>192</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2975,20 +3396,18 @@
         <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>192</v>
-      </c>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3003,7 +3422,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3012,50 +3431,44 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" t="s">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>198</v>
-      </c>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3070,7 +3483,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3079,41 +3492,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
-      </c>
-      <c r="K30" t="s">
-        <v>203</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
         <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3121,7 +3532,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -3137,7 +3548,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3146,10 +3557,10 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3157,16 +3568,16 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
         <v>5</v>
@@ -3176,7 +3587,7 @@
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3198,7 +3609,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3207,28 +3618,24 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32" t="s">
-        <v>212</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>3</v>
@@ -3237,20 +3644,18 @@
         <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s">
-        <v>212</v>
-      </c>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3265,7 +3670,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3274,37 +3679,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="J33" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3326,7 +3731,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3335,42 +3740,50 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
+      <c r="Y34" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3385,7 +3798,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3394,50 +3807,44 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
-      </c>
-      <c r="K35" t="s">
-        <v>225</v>
-      </c>
-      <c r="L35" t="s">
-        <v>226</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>226</v>
-      </c>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3452,7 +3859,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3461,48 +3868,44 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J36" t="s">
-        <v>230</v>
-      </c>
-      <c r="K36" t="s">
-        <v>231</v>
-      </c>
-      <c r="L36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
         <v>232</v>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>233</v>
-      </c>
       <c r="O36" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s">
-        <v>234</v>
-      </c>
+      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3517,7 +3920,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3526,46 +3929,44 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J37" t="s">
-        <v>237</v>
-      </c>
-      <c r="K37" t="s">
-        <v>238</v>
-      </c>
-      <c r="L37" t="s">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>232</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s">
-        <v>240</v>
-      </c>
+      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3580,7 +3981,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3589,49 +3990,1729 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J38" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" t="s">
         <v>244</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
         <v>245</v>
       </c>
-      <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s">
-        <v>246</v>
-      </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s">
-        <v>245</v>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" t="s">
+        <v>249</v>
+      </c>
+      <c r="L39" t="s">
+        <v>250</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" t="s">
+        <v>259</v>
+      </c>
+      <c r="L41" t="s">
+        <v>260</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>261</v>
+      </c>
+      <c r="O41" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>265</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" t="s">
+        <v>269</v>
+      </c>
+      <c r="L43" t="s">
+        <v>270</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>265</v>
+      </c>
+      <c r="O43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>272</v>
+      </c>
+      <c r="J44" t="s">
+        <v>273</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>274</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" t="s">
+        <v>277</v>
+      </c>
+      <c r="K45" t="s">
+        <v>278</v>
+      </c>
+      <c r="L45" t="s">
+        <v>279</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>274</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>281</v>
+      </c>
+      <c r="J46" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" t="s">
+        <v>283</v>
+      </c>
+      <c r="L46" t="s">
+        <v>284</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>285</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>286</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" t="s">
+        <v>288</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>285</v>
+      </c>
+      <c r="O47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>289</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" t="s">
+        <v>291</v>
+      </c>
+      <c r="K48" t="s">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s">
+        <v>293</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>294</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" t="s">
+        <v>298</v>
+      </c>
+      <c r="L49" t="s">
+        <v>299</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>294</v>
+      </c>
+      <c r="O49" t="s">
+        <v>100</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>300</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J50" t="s">
+        <v>302</v>
+      </c>
+      <c r="K50" t="s">
+        <v>303</v>
+      </c>
+      <c r="L50" t="s">
+        <v>304</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>294</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>306</v>
+      </c>
+      <c r="J51" t="s">
+        <v>307</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>294</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>308</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>309</v>
+      </c>
+      <c r="J52" t="s">
+        <v>310</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>311</v>
+      </c>
+      <c r="O52" t="s">
+        <v>111</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>313</v>
+      </c>
+      <c r="J53" t="s">
+        <v>314</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>311</v>
+      </c>
+      <c r="O53" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>315</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>316</v>
+      </c>
+      <c r="J54" t="s">
+        <v>317</v>
+      </c>
+      <c r="K54" t="s">
+        <v>318</v>
+      </c>
+      <c r="L54" t="s">
+        <v>319</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>311</v>
+      </c>
+      <c r="O54" t="s">
+        <v>100</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>321</v>
+      </c>
+      <c r="J55" t="s">
+        <v>322</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>323</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>325</v>
+      </c>
+      <c r="J56" t="s">
+        <v>326</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>327</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>328</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>329</v>
+      </c>
+      <c r="J57" t="s">
+        <v>330</v>
+      </c>
+      <c r="K57" t="s">
+        <v>331</v>
+      </c>
+      <c r="L57" t="s">
+        <v>332</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>333</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="J58" t="s">
+        <v>337</v>
+      </c>
+      <c r="K58" t="s">
+        <v>338</v>
+      </c>
+      <c r="L58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>333</v>
+      </c>
+      <c r="O58" t="s">
+        <v>77</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>340</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" t="s">
+        <v>342</v>
+      </c>
+      <c r="K59" t="s">
+        <v>343</v>
+      </c>
+      <c r="L59" t="s">
+        <v>344</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>345</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>346</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>347</v>
+      </c>
+      <c r="J60" t="s">
+        <v>348</v>
+      </c>
+      <c r="K60" t="s">
+        <v>349</v>
+      </c>
+      <c r="L60" t="s">
+        <v>350</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>351</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>354</v>
+      </c>
+      <c r="J61" t="s">
+        <v>355</v>
+      </c>
+      <c r="K61" t="s">
+        <v>356</v>
+      </c>
+      <c r="L61" t="s">
+        <v>357</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>359</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>360</v>
+      </c>
+      <c r="J62" t="s">
+        <v>361</v>
+      </c>
+      <c r="K62" t="s">
+        <v>362</v>
+      </c>
+      <c r="L62" t="s">
+        <v>363</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>364</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>366</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>367</v>
+      </c>
+      <c r="J63" t="s">
+        <v>368</v>
+      </c>
+      <c r="K63" t="s">
+        <v>369</v>
+      </c>
+      <c r="L63" t="s">
+        <v>370</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>371</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41133</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>372</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>373</v>
+      </c>
+      <c r="J64" t="s">
+        <v>374</v>
+      </c>
+      <c r="K64" t="s">
+        <v>375</v>
+      </c>
+      <c r="L64" t="s">
+        <v>376</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>377</v>
+      </c>
+      <c r="O64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
